--- a/1.LabOOP/Excell tests/Lab1_1-Test-BlackBox.xlsx
+++ b/1.LabOOP/Excell tests/Lab1_1-Test-BlackBox.xlsx
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +180,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +205,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,27 +224,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,402 +640,576 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="57.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="3" customWidth="1"/>
-    <col min="2" max="4" width="24" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="4" width="24" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="6">
         <v>1</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="6">
         <v>2</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="6">
         <v>3</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="6">
         <v>4</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="6">
         <v>5</v>
       </c>
-      <c r="L1" s="1">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1">
+      <c r="L1" s="6">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6">
         <v>7</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="6">
         <v>8</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="6">
         <v>9</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="6">
         <v>10</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="6">
         <v>11</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="6">
         <v>12</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="6">
         <v>13</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="13"/>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="13"/>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="13"/>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="13"/>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="17" t="s">
         <v>6</v>
       </c>
     </row>
